--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.923</v>
+        <v>-0.258</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.923</v>
+        <v>-0.258</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.143</v>
+        <v>-0.041</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.143</v>
+        <v>-0.041</v>
       </c>
       <c r="D5" t="n">
         <v>-0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.117</v>
+        <v>3.683</v>
       </c>
       <c r="C6" t="n">
-        <v>6.117</v>
+        <v>3.683</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.375</v>
+        <v>0.219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.375</v>
+        <v>0.219</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.722</v>
+        <v>14.575</v>
       </c>
       <c r="C8" t="n">
-        <v>16.722</v>
+        <v>14.575</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.674</v>
+        <v>2.746</v>
       </c>
       <c r="C9" t="n">
-        <v>4.674</v>
+        <v>2.746</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.714</v>
+        <v>27.576</v>
       </c>
       <c r="C10" t="n">
-        <v>56.714</v>
+        <v>27.576</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.299</v>
+        <v>0.114</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299</v>
+        <v>0.114</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.361</v>
+        <v>-0.879</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.361</v>
+        <v>-0.879</v>
       </c>
       <c r="D12" t="n">
         <v>-0</v>
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.531</v>
+        <v>5.251</v>
       </c>
       <c r="C13" t="n">
-        <v>7.531</v>
+        <v>5.251</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.568391993641853</v>
+        <v>3.861465902555556</v>
       </c>
       <c r="C4" t="n">
-        <v>4.162360012531281</v>
+        <v>4.253321170806885</v>
       </c>
       <c r="D4" t="n">
-        <v>16.65</v>
+        <v>10.15</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6164251414331288</v>
+        <v>0.915562835559307</v>
       </c>
       <c r="F4" t="n">
-        <v>1.188214042354949</v>
+        <v>1.16099662007594</v>
       </c>
       <c r="G4" t="n">
-        <v>92.76000000000001</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.706133344513206</v>
+        <v>5.457079533276354</v>
       </c>
       <c r="C6" t="n">
-        <v>4.516831261549675</v>
+        <v>5.593742212889513</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.02</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1913916544042728</v>
+        <v>0.5183416638359508</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8219225591881869</v>
+        <v>0.6076569273103085</v>
       </c>
       <c r="G6" t="n">
-        <v>329.45</v>
+        <v>17.23</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.258</v>
+        <v>-0.044</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.258</v>
+        <v>-0.044</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.041</v>
+        <v>-0.027</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.041</v>
+        <v>-0.027</v>
       </c>
       <c r="D5" t="n">
         <v>-0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.683</v>
+        <v>2.795</v>
       </c>
       <c r="C6" t="n">
-        <v>3.683</v>
+        <v>2.795</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.219</v>
+        <v>0.208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.219</v>
+        <v>0.208</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.575</v>
+        <v>10.498</v>
       </c>
       <c r="C8" t="n">
-        <v>14.575</v>
+        <v>10.498</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.746</v>
+        <v>2.526</v>
       </c>
       <c r="C9" t="n">
-        <v>2.746</v>
+        <v>2.526</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.576</v>
+        <v>12.188</v>
       </c>
       <c r="C10" t="n">
-        <v>27.576</v>
+        <v>12.188</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.114</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.114</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.879</v>
+        <v>-0.031</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.879</v>
+        <v>-0.031</v>
       </c>
       <c r="D12" t="n">
         <v>-0</v>
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.251</v>
+        <v>3.491</v>
       </c>
       <c r="C13" t="n">
-        <v>5.251</v>
+        <v>3.491</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.861465902555556</v>
+        <v>3.819017904145377</v>
       </c>
       <c r="C4" t="n">
-        <v>4.253321170806885</v>
+        <v>3.928962298801967</v>
       </c>
       <c r="D4" t="n">
-        <v>10.15</v>
+        <v>2.88</v>
       </c>
       <c r="E4" t="n">
-        <v>0.915562835559307</v>
+        <v>0.4725004289215275</v>
       </c>
       <c r="F4" t="n">
-        <v>1.16099662007594</v>
+        <v>0.7049247741917325</v>
       </c>
       <c r="G4" t="n">
-        <v>26.81</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="5">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="C5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.457079533276354</v>
+        <v>2.585375403128055</v>
       </c>
       <c r="C6" t="n">
-        <v>5.593742212889513</v>
+        <v>2.645459168253242</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5183416638359508</v>
+        <v>0.2752744703525386</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6076569273103085</v>
+        <v>0.7154530533247915</v>
       </c>
       <c r="G6" t="n">
-        <v>17.23</v>
+        <v>159.91</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/1_quant-dynamic_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -512,7 +514,7 @@
         <v>-0.044</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +530,7 @@
         <v>-0.027</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,7 +642,7 @@
         <v>-0.031</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
